--- a/assets/findings/2024-02-22-findings.xlsx
+++ b/assets/findings/2024-02-22-findings.xlsx
@@ -636,8 +636,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -669,8 +671,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -735,8 +739,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -768,8 +774,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -834,8 +842,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -867,8 +877,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -933,8 +945,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -966,8 +980,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1032,8 +1048,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>1911783</v>
@@ -1068,8 +1086,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1134,8 +1154,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1167,8 +1189,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1233,8 +1257,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1266,8 +1292,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1332,8 +1360,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1365,8 +1395,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1431,8 +1463,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1464,8 +1498,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1530,8 +1566,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1563,8 +1601,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1629,8 +1669,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>1361932</v>
@@ -1665,8 +1707,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1731,8 +1775,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v>1361932</v>
@@ -1767,8 +1813,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1833,8 +1881,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>1</v>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N14" t="n">
         <v>3728435</v>
@@ -1869,8 +1919,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1935,8 +1987,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N15" t="n">
         <v>3728435</v>
@@ -1971,8 +2025,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2037,8 +2093,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2070,8 +2128,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2323,8 +2383,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2356,8 +2418,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2422,8 +2486,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2455,8 +2521,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2521,8 +2589,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2554,8 +2624,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2620,8 +2692,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2653,8 +2727,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2719,8 +2795,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -2752,8 +2830,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2818,8 +2898,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -2851,8 +2933,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3086,8 +3170,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>165289</v>
@@ -3122,8 +3208,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3347,8 +3435,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3380,8 +3470,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3446,8 +3538,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1250000</v>
@@ -3482,8 +3576,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3548,8 +3644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -3581,8 +3679,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3647,8 +3747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3680,8 +3782,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3746,8 +3850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -3779,8 +3885,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3845,8 +3953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3878,8 +3988,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3944,8 +4056,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3977,8 +4091,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -4043,8 +4159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -4076,8 +4194,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -4315,8 +4435,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4348,8 +4470,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4573,8 +4697,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4606,8 +4732,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4672,8 +4800,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4705,8 +4835,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4771,8 +4903,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4804,8 +4938,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4870,8 +5006,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -4903,8 +5041,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4969,8 +5109,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -5002,8 +5144,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -5068,8 +5212,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -5101,8 +5247,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5167,8 +5315,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -5200,8 +5350,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -5266,8 +5418,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -5299,8 +5453,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -5365,8 +5521,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -5398,8 +5556,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -5639,8 +5799,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5672,8 +5834,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5738,8 +5902,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5771,8 +5937,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5837,8 +6005,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5870,8 +6040,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5936,8 +6108,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5969,8 +6143,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -6035,8 +6211,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -6068,8 +6246,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -6134,8 +6314,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -6167,8 +6349,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -6233,8 +6417,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -6266,8 +6452,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -6332,8 +6520,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -6365,8 +6555,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -6431,8 +6623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -6464,8 +6658,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -6530,8 +6726,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -6563,8 +6761,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -6629,8 +6829,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -6662,8 +6864,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -6728,8 +6932,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -6761,8 +6967,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -6827,8 +7035,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -6860,8 +7070,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -6926,8 +7138,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -6959,8 +7173,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -7025,8 +7241,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
@@ -7058,8 +7276,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -7124,8 +7344,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -7157,8 +7379,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -7223,8 +7447,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -7256,8 +7482,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -7322,8 +7550,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -7355,8 +7585,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -7421,8 +7653,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -7454,8 +7688,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -7520,8 +7756,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -7553,8 +7791,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -7619,8 +7859,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -7652,8 +7894,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -7718,8 +7962,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -7751,8 +7997,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -7817,8 +8065,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -7850,8 +8100,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -7916,8 +8168,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -7949,8 +8203,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -8015,8 +8271,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -8048,8 +8306,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -8114,8 +8374,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -8147,8 +8409,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -8213,8 +8477,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -8246,8 +8512,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -8312,8 +8580,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -8345,8 +8615,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -8411,8 +8683,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -8444,8 +8718,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -8510,8 +8786,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -8543,8 +8821,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -8609,8 +8889,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
@@ -8642,8 +8924,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -8708,8 +8992,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
@@ -8741,8 +9027,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -8807,8 +9095,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
@@ -8840,8 +9130,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -8906,8 +9198,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
@@ -8939,8 +9233,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -9005,8 +9301,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
@@ -9038,8 +9336,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -9104,8 +9404,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
@@ -9137,8 +9439,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -9203,8 +9507,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -9236,8 +9542,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -9302,8 +9610,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -9335,8 +9645,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -9401,8 +9713,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -9434,8 +9748,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -9500,8 +9816,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -9533,8 +9851,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -9599,8 +9919,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -9632,8 +9954,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -9698,8 +10022,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -9731,8 +10057,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -9797,8 +10125,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -9830,8 +10160,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -9896,8 +10228,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -9929,8 +10263,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -9995,8 +10331,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -10028,8 +10366,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -10094,8 +10434,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -10127,8 +10469,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -10193,8 +10537,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -10226,8 +10572,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -10292,8 +10640,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -10325,8 +10675,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -10391,8 +10743,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -10424,8 +10778,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -10490,8 +10846,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -10523,8 +10881,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -10589,8 +10949,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -10622,8 +10984,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -10688,8 +11052,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -10721,8 +11087,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -10787,8 +11155,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -10820,8 +11190,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -10886,8 +11258,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -10919,8 +11293,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -10985,8 +11361,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -11018,8 +11396,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -11084,8 +11464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -11117,8 +11499,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -11183,8 +11567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -11216,8 +11602,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -11282,8 +11670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -11315,8 +11705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>1</v>
+      <c r="U59" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -11381,8 +11773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -11414,8 +11808,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -11480,8 +11876,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -11513,8 +11911,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
+      <c r="U61" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -11579,8 +11979,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -11612,8 +12014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
+      <c r="U62" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -11678,8 +12082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -11711,8 +12117,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -11777,8 +12185,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -11810,8 +12220,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -11876,8 +12288,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -11909,8 +12323,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -11975,8 +12391,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -12008,8 +12426,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -12074,8 +12494,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -12107,8 +12529,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>1</v>
+      <c r="U67" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -12173,8 +12597,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -12206,8 +12632,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>1</v>
+      <c r="U68" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -12272,8 +12700,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -12305,8 +12735,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>1</v>
+      <c r="U69" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -12371,8 +12803,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -12404,8 +12838,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -12470,8 +12906,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -12503,8 +12941,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>1</v>
+      <c r="U71" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -12569,8 +13009,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -12602,8 +13044,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>1</v>
+      <c r="U72" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -12668,8 +13112,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -12701,8 +13147,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>1</v>
+      <c r="U73" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -12767,8 +13215,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -12800,8 +13250,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>1</v>
+      <c r="U74" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -12866,8 +13318,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -12899,8 +13353,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -12965,8 +13421,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -12998,8 +13456,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -13064,8 +13524,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -13097,8 +13559,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -13163,8 +13627,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -13196,8 +13662,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -13262,8 +13730,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -13295,8 +13765,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -13361,8 +13833,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -13394,8 +13868,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -13460,8 +13936,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -13493,8 +13971,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -13559,8 +14039,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -13592,8 +14074,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -13658,8 +14142,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -13691,8 +14177,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>1</v>
+      <c r="U83" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -13757,8 +14245,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -13790,8 +14280,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U84" t="b">
-        <v>1</v>
+      <c r="U84" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -13856,8 +14348,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M85" t="b">
-        <v>0</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -13889,8 +14383,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U85" t="b">
-        <v>1</v>
+      <c r="U85" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -13955,8 +14451,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M86" t="b">
-        <v>0</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -13988,8 +14486,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U86" t="b">
-        <v>1</v>
+      <c r="U86" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -14054,8 +14554,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M87" t="b">
-        <v>0</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -14087,8 +14589,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U87" t="b">
-        <v>1</v>
+      <c r="U87" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -14153,8 +14657,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M88" t="b">
-        <v>0</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -14186,8 +14692,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U88" t="b">
-        <v>1</v>
+      <c r="U88" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -14252,8 +14760,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M89" t="b">
-        <v>0</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -14285,8 +14795,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U89" t="b">
-        <v>1</v>
+      <c r="U89" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -14351,8 +14863,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M90" t="b">
-        <v>0</v>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -14384,8 +14898,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U90" t="b">
-        <v>0</v>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -14450,8 +14966,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M91" t="b">
-        <v>0</v>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -14483,8 +15001,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U91" t="b">
-        <v>0</v>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -14549,8 +15069,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M92" t="b">
-        <v>0</v>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -14582,8 +15104,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U92" t="b">
-        <v>0</v>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -14648,8 +15172,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M93" t="b">
-        <v>0</v>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -14681,8 +15207,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U93" t="b">
-        <v>0</v>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -14747,8 +15275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M94" t="b">
-        <v>0</v>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -14780,8 +15310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U94" t="b">
-        <v>0</v>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -14846,8 +15378,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M95" t="b">
-        <v>0</v>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -14879,8 +15413,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U95" t="b">
-        <v>0</v>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -15290,8 +15826,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15323,8 +15861,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15389,8 +15929,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -15422,8 +15964,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15488,8 +16032,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15521,8 +16067,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15750,8 +16298,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15783,8 +16333,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15849,8 +16401,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -15882,8 +16436,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15948,8 +16504,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15981,8 +16539,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -16047,8 +16607,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -16080,8 +16642,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -16146,8 +16710,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>165289</v>
@@ -16182,8 +16748,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -16248,8 +16816,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -16281,8 +16851,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -16516,8 +17088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -16549,8 +17123,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16774,8 +17350,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -16807,8 +17385,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16873,8 +17453,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -16906,8 +17488,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -16972,8 +17556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>1250000</v>
@@ -17008,8 +17594,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -17074,8 +17662,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -17107,8 +17697,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -17173,8 +17765,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -17206,8 +17800,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -17272,8 +17868,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -17305,8 +17903,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -17371,8 +17971,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -17404,8 +18006,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -17470,8 +18074,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -17503,8 +18109,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -17742,8 +18350,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -17775,8 +18385,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17841,8 +18453,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -17874,8 +18488,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -17940,8 +18556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -17973,8 +18591,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -18039,8 +18659,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -18072,8 +18694,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -18138,8 +18762,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -18171,8 +18797,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -18237,8 +18865,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -18270,8 +18900,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -18336,8 +18968,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -18369,8 +19003,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -18435,8 +19071,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -18468,8 +19106,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -18534,8 +19174,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -18567,8 +19209,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -18633,8 +19277,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -18666,8 +19312,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -18732,8 +19380,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -18765,8 +19415,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -18831,8 +19483,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -18864,8 +19518,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -19111,8 +19767,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -19144,8 +19802,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -19210,8 +19870,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -19243,8 +19905,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -19309,8 +19973,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -19342,8 +20008,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -19408,8 +20076,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -19441,8 +20111,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -19507,8 +20179,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -19540,8 +20214,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -19606,8 +20282,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -19639,8 +20317,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -19705,8 +20385,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -19738,8 +20420,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -19804,8 +20488,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -19837,8 +20523,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -19903,8 +20591,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -19936,8 +20626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -20002,8 +20694,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -20035,8 +20729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -20101,8 +20797,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -20134,8 +20832,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -20200,8 +20900,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -20233,8 +20935,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -20299,8 +21003,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -20332,8 +21038,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -20398,8 +21106,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -20431,8 +21141,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -20497,8 +21209,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
@@ -20530,8 +21244,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -20596,8 +21312,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -20629,8 +21347,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -20695,8 +21415,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -20728,8 +21450,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -20794,8 +21518,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -20827,8 +21553,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -20893,8 +21621,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -20926,8 +21656,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -20992,8 +21724,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -21025,8 +21759,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -21091,8 +21827,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -21124,8 +21862,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -21190,8 +21930,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -21223,8 +21965,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -21289,8 +22033,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -21322,8 +22068,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -21388,8 +22136,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -21421,8 +22171,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -21487,8 +22239,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -21520,8 +22274,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -21586,8 +22342,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -21619,8 +22377,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -21685,8 +22445,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -21718,8 +22480,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -21784,8 +22548,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -21817,8 +22583,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -21883,8 +22651,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -21916,8 +22686,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -21982,8 +22754,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -22015,8 +22789,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -22081,8 +22857,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
@@ -22114,8 +22892,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -22180,8 +22960,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
@@ -22213,8 +22995,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -22279,8 +23063,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -22312,8 +23098,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -22378,8 +23166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -22411,8 +23201,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -22477,8 +23269,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -22510,8 +23304,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -22576,8 +23372,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -22609,8 +23407,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -22675,8 +23475,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -22708,8 +23510,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -22774,8 +23578,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -22807,8 +23613,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -22873,8 +23681,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -22906,8 +23716,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -22972,8 +23784,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -23005,8 +23819,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -23071,8 +23887,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -23104,8 +23922,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -23170,8 +23990,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -23203,8 +24025,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -23269,8 +24093,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -23302,8 +24128,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -23368,8 +24196,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -23401,8 +24231,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -23467,8 +24299,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -23500,8 +24334,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -23566,8 +24402,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -23599,8 +24437,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -23665,8 +24505,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -23698,8 +24540,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -23764,8 +24608,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -23797,8 +24643,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -23863,8 +24711,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -23896,8 +24746,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -23962,8 +24814,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -23995,8 +24849,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -24061,8 +24917,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -24094,8 +24952,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -24160,8 +25020,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -24193,8 +25055,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -24259,8 +25123,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -24292,8 +25158,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -24358,8 +25226,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -24391,8 +25261,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -24457,8 +25329,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -24490,8 +25364,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -24556,8 +25432,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -24589,8 +25467,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -24655,8 +25535,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -24688,8 +25570,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -24754,8 +25638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -24787,8 +25673,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -24853,8 +25741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -24886,8 +25776,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -24952,8 +25844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -24985,8 +25879,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
+      <c r="U61" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -25051,8 +25947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -25084,8 +25982,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -25150,8 +26050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -25183,8 +26085,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>1</v>
+      <c r="U63" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -25249,8 +26153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -25282,8 +26188,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>1</v>
+      <c r="U64" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -25348,8 +26256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -25381,8 +26291,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -25447,8 +26359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -25480,8 +26394,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -25546,8 +26462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -25579,8 +26497,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -25645,8 +26565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -25678,8 +26600,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -25744,8 +26668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -25777,8 +26703,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>1</v>
+      <c r="U69" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -25843,8 +26771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -25876,8 +26806,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>1</v>
+      <c r="U70" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -25942,8 +26874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -25975,8 +26909,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>1</v>
+      <c r="U71" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -26041,8 +26977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -26074,8 +27012,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -26140,8 +27080,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -26173,8 +27115,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>1</v>
+      <c r="U73" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -26239,8 +27183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -26272,8 +27218,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>1</v>
+      <c r="U74" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -26338,8 +27286,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -26371,8 +27321,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>1</v>
+      <c r="U75" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -26437,8 +27389,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -26470,8 +27424,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>1</v>
+      <c r="U76" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -26536,8 +27492,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -26569,8 +27527,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -26635,8 +27595,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -26668,8 +27630,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -26734,8 +27698,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -26767,8 +27733,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -26833,8 +27801,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -26866,8 +27836,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -26932,8 +27904,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -26965,8 +27939,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -27031,8 +28007,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -27064,8 +28042,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -27130,8 +28110,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -27163,8 +28145,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>0</v>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -27229,8 +28213,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -27262,8 +28248,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U84" t="b">
-        <v>0</v>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -27328,8 +28316,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M85" t="b">
-        <v>0</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -27361,8 +28351,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U85" t="b">
-        <v>1</v>
+      <c r="U85" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -27427,8 +28419,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M86" t="b">
-        <v>0</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -27460,8 +28454,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U86" t="b">
-        <v>1</v>
+      <c r="U86" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -27526,8 +28522,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M87" t="b">
-        <v>0</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -27559,8 +28557,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U87" t="b">
-        <v>1</v>
+      <c r="U87" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -27625,8 +28625,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M88" t="b">
-        <v>0</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -27658,8 +28660,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U88" t="b">
-        <v>1</v>
+      <c r="U88" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -27724,8 +28728,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M89" t="b">
-        <v>0</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -27757,8 +28763,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U89" t="b">
-        <v>1</v>
+      <c r="U89" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -27823,8 +28831,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M90" t="b">
-        <v>0</v>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -27856,8 +28866,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U90" t="b">
-        <v>1</v>
+      <c r="U90" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -27922,8 +28934,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M91" t="b">
-        <v>0</v>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -27955,8 +28969,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U91" t="b">
-        <v>0</v>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -28021,8 +29037,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M92" t="b">
-        <v>0</v>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -28054,8 +29072,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U92" t="b">
-        <v>0</v>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -28120,8 +29140,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M93" t="b">
-        <v>0</v>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -28153,8 +29175,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U93" t="b">
-        <v>0</v>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -28219,8 +29243,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M94" t="b">
-        <v>0</v>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -28252,8 +29278,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U94" t="b">
-        <v>0</v>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -28318,8 +29346,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M95" t="b">
-        <v>0</v>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -28351,8 +29381,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U95" t="b">
-        <v>0</v>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -28417,8 +29449,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M96" t="b">
-        <v>0</v>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -28450,8 +29484,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U96" t="b">
-        <v>0</v>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
@@ -28863,8 +29899,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -28896,8 +29934,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -28962,8 +30002,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -28995,8 +30037,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -29061,8 +30105,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -29094,8 +30140,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -29160,8 +30208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -29193,8 +30243,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -29259,8 +30311,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -29292,8 +30346,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -29358,8 +30414,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -29391,8 +30449,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -29457,8 +30517,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -29490,8 +30552,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -29727,8 +30791,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -29760,8 +30826,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -29826,8 +30894,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -29859,8 +30929,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -29925,8 +30997,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -29958,8 +31032,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -30024,8 +31100,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -30057,8 +31135,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -30123,8 +31203,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -30156,8 +31238,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -30222,8 +31306,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -30255,8 +31341,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -30321,8 +31409,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -30354,8 +31444,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -30420,8 +31512,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -30453,8 +31547,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -30692,8 +31788,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>1911783</v>
@@ -30728,8 +31826,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30794,8 +31894,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30827,8 +31929,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30893,8 +31997,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -30926,8 +32032,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -30992,8 +32100,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -31025,8 +32135,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -31091,8 +32203,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -31124,8 +32238,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -31190,8 +32306,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -31223,8 +32341,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -31289,8 +32409,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -31322,8 +32444,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -31388,8 +32512,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -31421,8 +32547,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -31487,8 +32615,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -31520,8 +32650,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -31586,8 +32718,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -31619,8 +32753,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -31685,8 +32821,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>1361932</v>
@@ -31721,8 +32859,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -31787,8 +32927,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v>1361932</v>
@@ -31823,8 +32965,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -31889,8 +33033,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>1</v>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N14" t="n">
         <v>3728435</v>
@@ -31925,8 +33071,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -31991,8 +33139,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N15" t="n">
         <v>3728435</v>
@@ -32027,8 +33177,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
